--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3702678.722783819</v>
+        <v>3700343.611581837</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>143.1175458707144</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>74.40499775465034</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>39.15797524740199</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>100.395184596939</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>115.653228379492</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>204.1326886606849</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>42.00436530810237</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>10.24924571897591</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,10 +1148,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>108.9520512661123</v>
+        <v>71.68269007697916</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1291,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>26.05155675490728</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>75.0888690599473</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G16" t="n">
-        <v>120.7871326503968</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>141.6930519056957</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>53.11937003877915</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2767,13 +2767,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3749,10 +3749,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,10 +3904,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>93.07916359105417</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711285</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>918.0161179218651</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="C2" t="n">
-        <v>549.0536009814534</v>
+        <v>922.5193592425337</v>
       </c>
       <c r="D2" t="n">
-        <v>549.0536009814534</v>
+        <v>922.5193592425337</v>
       </c>
       <c r="E2" t="n">
-        <v>549.0536009814534</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F2" t="n">
-        <v>138.0676961918459</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>126.4033499565388</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4358,7 +4358,7 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
         <v>1975.31341879663</v>
@@ -4370,10 +4370,10 @@
         <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218651</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y2" t="n">
-        <v>918.0161179218651</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="3">
@@ -4401,10 +4401,10 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
@@ -4413,19 +4413,19 @@
         <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>662.3527266874014</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341572</v>
+        <v>1025.614745646621</v>
       </c>
       <c r="N3" t="n">
-        <v>1614.486495938517</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>473.8272960668249</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="C4" t="n">
-        <v>473.8272960668249</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>473.8272960668249</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>473.8272960668249</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1535.036842703852</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1535.036842703852</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1535.036842703852</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1245.91850520769</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>991.2340170018028</v>
+        <v>825.137147448514</v>
       </c>
       <c r="W4" t="n">
-        <v>701.8168469648423</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="X4" t="n">
-        <v>473.8272960668249</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="Y4" t="n">
-        <v>473.8272960668249</v>
+        <v>535.7199774115534</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1201.12525314008</v>
+        <v>864.8611267254482</v>
       </c>
       <c r="C5" t="n">
-        <v>832.1627361996682</v>
+        <v>864.8611267254482</v>
       </c>
       <c r="D5" t="n">
-        <v>473.8970375929177</v>
+        <v>864.8611267254482</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>479.072874127204</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331018</v>
+        <v>472.1273733780005</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800312</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816083</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4583,34 +4583,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2231.445485915834</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>1977.864425180013</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.864425180013</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W5" t="n">
-        <v>1977.864425180013</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X5" t="n">
-        <v>1977.864425180013</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y5" t="n">
-        <v>1587.725093204202</v>
+        <v>1251.46096678957</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380223</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694941</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>665.4733549031288</v>
+        <v>359.629293016243</v>
       </c>
       <c r="C7" t="n">
-        <v>496.5371719752219</v>
+        <v>359.629293016243</v>
       </c>
       <c r="D7" t="n">
-        <v>346.4205325628861</v>
+        <v>209.5126536039072</v>
       </c>
       <c r="E7" t="n">
-        <v>303.9918807365201</v>
+        <v>61.59956002151412</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386098</v>
+        <v>61.59956002151412</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>61.59956002151412</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>61.59956002151412</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U7" t="n">
-        <v>1114.255484944676</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V7" t="n">
-        <v>1114.255484944676</v>
+        <v>990.0598878880302</v>
       </c>
       <c r="W7" t="n">
-        <v>1114.255484944676</v>
+        <v>990.0598878880302</v>
       </c>
       <c r="X7" t="n">
-        <v>886.2659340466589</v>
+        <v>762.0703369900128</v>
       </c>
       <c r="Y7" t="n">
-        <v>665.4733549031288</v>
+        <v>541.2777578464827</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796256</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C8" t="n">
-        <v>552.807938939214</v>
+        <v>942.9472709150266</v>
       </c>
       <c r="D8" t="n">
-        <v>194.5422403324635</v>
+        <v>584.6815723082761</v>
       </c>
       <c r="E8" t="n">
-        <v>194.5422403324635</v>
+        <v>198.8933197100319</v>
       </c>
       <c r="F8" t="n">
-        <v>187.59673958326</v>
+        <v>191.9478189608284</v>
       </c>
       <c r="G8" t="n">
-        <v>176.5646934686606</v>
+        <v>180.915772846229</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>1300.279904748355</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>1010.862734711394</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>782.8731838133765</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>562.0806046698464</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,31 +5036,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5121,25 +5121,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
         <v>402.7245934908939</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5236,13 +5236,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>847.6442739835331</v>
       </c>
     </row>
     <row r="14">
@@ -5264,40 +5264,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5367,16 +5367,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>215.8238677453423</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F16" t="n">
-        <v>215.8238677453423</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5516,19 +5516,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5595,16 +5595,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>542.9134462654462</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891998</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446605</v>
       </c>
       <c r="O18" t="n">
         <v>2319.799627685893</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>526.565882642405</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5741,37 +5741,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>229.5592957321584</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,7 +5984,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
@@ -6017,7 +6017,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6130,13 +6130,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6206,37 +6206,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="29">
@@ -6452,37 +6452,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,10 +6680,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,19 +6774,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,31 +6923,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7254,13 +7254,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7309,19 +7309,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7409,10 +7409,10 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,7 +7421,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7634,25 +7634,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8061,22 +8061,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>70.03064962107908</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
-        <v>255.8421700460943</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154988</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878346</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,19 +8304,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>224.3355197601772</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>150.6207863290899</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294945</v>
       </c>
       <c r="G16" t="n">
-        <v>44.73700564187209</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>6.922421112516645</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>112.4047682534897</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25318,13 +25318,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,10 +25561,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25792,10 +25792,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25804,7 +25804,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405078</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911101</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>653646.551297165</v>
+        <v>653646.5512971651</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>653646.5512971651</v>
+        <v>653646.5512971649</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>653646.551297165</v>
+        <v>653646.5512971651</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>653646.551297165</v>
+        <v>653646.5512971651</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>653646.551297165</v>
+        <v>653646.5512971649</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>653646.551297165</v>
+        <v>653646.5512971651</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>653646.5512971651</v>
+        <v>653646.551297165</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710696</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710696</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="E2" t="n">
         <v>766789.2697055059</v>
@@ -26326,34 +26326,34 @@
         <v>766789.2697055058</v>
       </c>
       <c r="G2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="H2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>766789.2697055059</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.269705506</v>
       </c>
       <c r="J2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="K2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="L2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="M2" t="n">
         <v>766789.269705506</v>
       </c>
-      <c r="M2" t="n">
-        <v>766789.2697055058</v>
-      </c>
       <c r="N2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.269705506</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055057</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.9700081908</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309558</v>
+        <v>87914.29116309555</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744306</v>
+        <v>8727.256391744304</v>
       </c>
       <c r="F4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
+        <v>8727.256391744275</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8727.256391744306</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8727.256391744306</v>
+      </c>
+      <c r="K4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="H4" t="n">
-        <v>8727.256391744275</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="J4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8727.256391744326</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="O4" t="n">
         <v>8727.256391744308</v>
       </c>
-      <c r="M4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8727.256391744306</v>
-      </c>
       <c r="P4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.77243984472</v>
+      </c>
+      <c r="C5" t="n">
         <v>92937.7724398447</v>
-      </c>
-      <c r="C5" t="n">
-        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-563222.0116216779</v>
+        <v>-563222.0116216784</v>
       </c>
       <c r="C6" t="n">
-        <v>551529.7719542419</v>
+        <v>551529.7719542416</v>
       </c>
       <c r="D6" t="n">
-        <v>391514.3092062425</v>
+        <v>391514.3092062422</v>
       </c>
       <c r="E6" t="n">
-        <v>331527.0216824993</v>
+        <v>331492.2837570639</v>
       </c>
       <c r="F6" t="n">
-        <v>656939.4834898545</v>
+        <v>656904.7455644185</v>
       </c>
       <c r="G6" t="n">
-        <v>656939.4834898545</v>
+        <v>656904.7455644186</v>
       </c>
       <c r="H6" t="n">
-        <v>656939.4834898546</v>
+        <v>656904.745564419</v>
       </c>
       <c r="I6" t="n">
-        <v>656939.4834898547</v>
+        <v>656904.745564419</v>
       </c>
       <c r="J6" t="n">
-        <v>489334.3056798719</v>
+        <v>489299.5677544361</v>
       </c>
       <c r="K6" t="n">
-        <v>656939.4834898547</v>
+        <v>656904.7455644188</v>
       </c>
       <c r="L6" t="n">
-        <v>608645.5134816639</v>
+        <v>608610.775556228</v>
       </c>
       <c r="M6" t="n">
-        <v>571884.4555543426</v>
+        <v>571849.7176289073</v>
       </c>
       <c r="N6" t="n">
-        <v>656939.4834898545</v>
+        <v>656904.7455644186</v>
       </c>
       <c r="O6" t="n">
-        <v>656939.4834898545</v>
+        <v>656904.7455644188</v>
       </c>
       <c r="P6" t="n">
-        <v>656939.4834898546</v>
+        <v>656904.7455644187</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
         <v>640.5848321000387</v>
       </c>
-      <c r="C4" t="n">
-        <v>640.584832100039</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>238.8128242015474</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>226.613554807755</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247047</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27537,25 +27537,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>128.0888458512258</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.162387822634642</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>295.8944743934619</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>2.525496319548893</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>104.4295973384668</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>94.54734948492467</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6557131212081</v>
+        <v>222.9250743103413</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>226.0860865689207</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="12">
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -30469,10 +30469,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,19 +31841,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550401</v>
       </c>
       <c r="O12" t="n">
-        <v>653.3850396373771</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31862,13 +31862,13 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>595.327537312171</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>441.0292693655505</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>260.171071406825</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32944,7 +32944,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817575</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33494,22 +33494,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,13 +33740,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>251.886104915025</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33898,10 +33898,10 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33974,16 +33974,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>754.0002396832328</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>602.4605829984174</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34366,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391492</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34781,22 +34781,22 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>367.7110102589293</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>591.2668520422174</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313194</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>615.5326193530511</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35489,19 +35489,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717068</v>
       </c>
       <c r="O12" t="n">
-        <v>510.7887951929326</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9858252288377</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>302.4748895856763</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>122.329632432466</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37142,22 +37142,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37546,10 +37546,10 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>285.360777932</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>622.6585275998996</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>471.1188709150841</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
